--- a/data/case1/14/Q_device_5.xlsx
+++ b/data/case1/14/Q_device_5.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.031155687522117038</v>
+        <v>0.049741383723816215</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.031155687580675735</v>
+        <v>-0.049741383734224313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.015719337372130292</v>
+        <v>0.022146649361710815</v>
       </c>
       <c r="B2" s="0">
-        <v>0.015719337252707691</v>
+        <v>-0.022146649378215099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.028543207194482813</v>
+        <v>-0.03578125063916851</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.028543207300634369</v>
+        <v>0.035781250611754446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.061153394089083088</v>
+        <v>-0.017750536747277772</v>
       </c>
       <c r="B4" s="0">
-        <v>0.061153393989548888</v>
+        <v>0.017750536705936636</v>
       </c>
     </row>
   </sheetData>
